--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp15-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp15-Acvr2a.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H2">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I2">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J2">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N2">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q2">
-        <v>2.534970296687999</v>
+        <v>3.509207356687666</v>
       </c>
       <c r="R2">
-        <v>22.814732670192</v>
+        <v>31.582866210189</v>
       </c>
       <c r="S2">
-        <v>0.186500155255167</v>
+        <v>0.1545456084708428</v>
       </c>
       <c r="T2">
-        <v>0.186500155255167</v>
+        <v>0.1545456084708428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H3">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I3">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J3">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q3">
-        <v>5.741367879870999</v>
+        <v>10.33430126491967</v>
       </c>
       <c r="R3">
-        <v>51.67231091883899</v>
+        <v>93.00871138427699</v>
       </c>
       <c r="S3">
-        <v>0.4223978491471684</v>
+        <v>0.4551229707370525</v>
       </c>
       <c r="T3">
-        <v>0.4223978491471684</v>
+        <v>0.4551229707370525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H4">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I4">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J4">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N4">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O4">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P4">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q4">
-        <v>0.9383995595429999</v>
+        <v>2.169055782554334</v>
       </c>
       <c r="R4">
-        <v>8.445596035887</v>
+        <v>19.521502042989</v>
       </c>
       <c r="S4">
-        <v>0.0690389405251836</v>
+        <v>0.09552528866190202</v>
       </c>
       <c r="T4">
-        <v>0.0690389405251836</v>
+        <v>0.09552528866190202</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H5">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I5">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J5">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N5">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q5">
-        <v>1.367958811195</v>
+        <v>3.309345197708333</v>
       </c>
       <c r="R5">
-        <v>12.311629300755</v>
+        <v>29.784106779375</v>
       </c>
       <c r="S5">
-        <v>0.1006420197522107</v>
+        <v>0.1457436723553001</v>
       </c>
       <c r="T5">
-        <v>0.1006420197522107</v>
+        <v>0.1457436723553001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H6">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I6">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J6">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N6">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O6">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P6">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q6">
-        <v>1.136836430503</v>
+        <v>1.533196539054667</v>
       </c>
       <c r="R6">
-        <v>10.231527874527</v>
+        <v>13.798768851492</v>
       </c>
       <c r="S6">
-        <v>0.08363812825165995</v>
+        <v>0.06752202647188374</v>
       </c>
       <c r="T6">
-        <v>0.08363812825165994</v>
+        <v>0.06752202647188374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I7">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J7">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N7">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q7">
-        <v>0.4050900633653333</v>
+        <v>0.3115458739718889</v>
       </c>
       <c r="R7">
-        <v>3.645810570287999</v>
+        <v>2.803912865747</v>
       </c>
       <c r="S7">
-        <v>0.02980285796984177</v>
+        <v>0.01372049063097055</v>
       </c>
       <c r="T7">
-        <v>0.02980285796984176</v>
+        <v>0.01372049063097056</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I8">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J8">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q8">
         <v>0.9174746865078888</v>
@@ -948,10 +948,10 @@
         <v>8.257272178570998</v>
       </c>
       <c r="S8">
-        <v>0.06749947788341554</v>
+        <v>0.04040561564785795</v>
       </c>
       <c r="T8">
-        <v>0.06749947788341552</v>
+        <v>0.04040561564785795</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I9">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J9">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N9">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O9">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P9">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q9">
-        <v>0.149956919627</v>
+        <v>0.1925678111274444</v>
       </c>
       <c r="R9">
-        <v>1.349612276643</v>
+        <v>1.733110300147</v>
       </c>
       <c r="S9">
-        <v>0.01103247198934112</v>
+        <v>0.008480692794021758</v>
       </c>
       <c r="T9">
-        <v>0.01103247198934112</v>
+        <v>0.008480692794021758</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I10">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J10">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N10">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q10">
-        <v>0.2186007947438889</v>
+        <v>0.2938022000694445</v>
       </c>
       <c r="R10">
-        <v>1.967407152695</v>
+        <v>2.644219800625</v>
       </c>
       <c r="S10">
-        <v>0.01608266661424158</v>
+        <v>0.01293905864333508</v>
       </c>
       <c r="T10">
-        <v>0.01608266661424158</v>
+        <v>0.01293905864333508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I11">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J11">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N11">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O11">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P11">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q11">
-        <v>0.1816672732892222</v>
+        <v>0.1361165092795555</v>
       </c>
       <c r="R11">
-        <v>1.635005459603</v>
+        <v>1.225048583516</v>
       </c>
       <c r="S11">
-        <v>0.01336543261177029</v>
+        <v>0.005994575586833395</v>
       </c>
       <c r="T11">
-        <v>0.01336543261177029</v>
+        <v>0.005994575586833395</v>
       </c>
     </row>
   </sheetData>
